--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H2">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I2">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J2">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>0.4389092204007777</v>
+        <v>0.6676671783773332</v>
       </c>
       <c r="R2">
-        <v>3.950182983607</v>
+        <v>6.009004605396</v>
       </c>
       <c r="S2">
-        <v>2.924295601809825E-05</v>
+        <v>0.0001399568179812471</v>
       </c>
       <c r="T2">
-        <v>2.924295601809826E-05</v>
+        <v>0.0001399568179812471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H3">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I3">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J3">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>11.87812754005344</v>
+        <v>19.32657621324156</v>
       </c>
       <c r="R3">
-        <v>106.903147860481</v>
+        <v>173.939185919174</v>
       </c>
       <c r="S3">
-        <v>0.0007913972755322161</v>
+        <v>0.00405124918054408</v>
       </c>
       <c r="T3">
-        <v>0.0007913972755322163</v>
+        <v>0.004051249180544079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H4">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I4">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J4">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>16.21215831163211</v>
+        <v>13.48881502176867</v>
       </c>
       <c r="R4">
-        <v>145.909424804689</v>
+        <v>121.399335195918</v>
       </c>
       <c r="S4">
-        <v>0.001080158288842965</v>
+        <v>0.002827533971899794</v>
       </c>
       <c r="T4">
-        <v>0.001080158288842965</v>
+        <v>0.002827533971899794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H5">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I5">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J5">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>1.136226579472445</v>
+        <v>2.056626210507555</v>
       </c>
       <c r="R5">
-        <v>10.226039215252</v>
+        <v>18.509635894568</v>
       </c>
       <c r="S5">
-        <v>7.570272472236273E-05</v>
+        <v>0.0004311112924541506</v>
       </c>
       <c r="T5">
-        <v>7.570272472236276E-05</v>
+        <v>0.0004311112924541504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H6">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I6">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J6">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>12.16441582241745</v>
+        <v>13.69284321943778</v>
       </c>
       <c r="R6">
-        <v>109.479742401757</v>
+        <v>123.23558897494</v>
       </c>
       <c r="S6">
-        <v>0.0008104716427601881</v>
+        <v>0.002870302492277892</v>
       </c>
       <c r="T6">
-        <v>0.0008104716427601883</v>
+        <v>0.002870302492277891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H7">
         <v>22.735514</v>
       </c>
       <c r="I7">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J7">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>51.11501577760289</v>
+        <v>47.78888333828133</v>
       </c>
       <c r="R7">
-        <v>460.035141998426</v>
+        <v>430.099950044532</v>
       </c>
       <c r="S7">
-        <v>0.00340561120334621</v>
+        <v>0.01001753607711857</v>
       </c>
       <c r="T7">
-        <v>0.003405611203346211</v>
+        <v>0.01001753607711857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H8">
         <v>22.735514</v>
       </c>
       <c r="I8">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J8">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>1383.317206377684</v>
@@ -948,10 +948,10 @@
         <v>12449.85485739916</v>
       </c>
       <c r="S8">
-        <v>0.09216549196265071</v>
+        <v>0.2899718313754114</v>
       </c>
       <c r="T8">
-        <v>0.09216549196265073</v>
+        <v>0.2899718313754114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H9">
         <v>22.735514</v>
       </c>
       <c r="I9">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J9">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>1888.054953895434</v>
+        <v>965.4741588670007</v>
       </c>
       <c r="R9">
-        <v>16992.4945850589</v>
+        <v>8689.267429803005</v>
       </c>
       <c r="S9">
-        <v>0.1257943679699896</v>
+        <v>0.2023833063751121</v>
       </c>
       <c r="T9">
-        <v>0.1257943679699896</v>
+        <v>0.2023833063751121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H10">
         <v>22.735514</v>
       </c>
       <c r="I10">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J10">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>132.3240361267262</v>
+        <v>147.2048847500062</v>
       </c>
       <c r="R10">
-        <v>1190.916325140536</v>
+        <v>1324.843962750056</v>
       </c>
       <c r="S10">
-        <v>0.00881627860325589</v>
+        <v>0.03085718143428587</v>
       </c>
       <c r="T10">
-        <v>0.00881627860325589</v>
+        <v>0.03085718143428587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H11">
         <v>22.735514</v>
       </c>
       <c r="I11">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J11">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>1416.658110122236</v>
+        <v>980.0776620073312</v>
       </c>
       <c r="R11">
-        <v>12749.92299110013</v>
+        <v>8820.698958065979</v>
       </c>
       <c r="S11">
-        <v>0.09438687747128802</v>
+        <v>0.2054445019783873</v>
       </c>
       <c r="T11">
-        <v>0.09438687747128802</v>
+        <v>0.2054445019783872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H12">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I12">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J12">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>49.27544514882233</v>
+        <v>1.90638336272</v>
       </c>
       <c r="R12">
-        <v>443.479006339401</v>
+        <v>17.15745026448</v>
       </c>
       <c r="S12">
-        <v>0.003283047173042872</v>
+        <v>0.0003996172912784578</v>
       </c>
       <c r="T12">
-        <v>0.003283047173042873</v>
+        <v>0.0003996172912784578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H13">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I13">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J13">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>1333.53321111862</v>
+        <v>55.18297820301333</v>
       </c>
       <c r="R13">
-        <v>12001.79890006758</v>
+        <v>496.64680382712</v>
       </c>
       <c r="S13">
-        <v>0.08884856190946872</v>
+        <v>0.01156749093881243</v>
       </c>
       <c r="T13">
-        <v>0.08884856190946873</v>
+        <v>0.01156749093881243</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H14">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I14">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J14">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>1820.106027618636</v>
+        <v>38.51447753176</v>
       </c>
       <c r="R14">
-        <v>16380.95424856773</v>
+        <v>346.63029778584</v>
       </c>
       <c r="S14">
-        <v>0.1212671733469762</v>
+        <v>0.008073429241580889</v>
       </c>
       <c r="T14">
-        <v>0.1212671733469762</v>
+        <v>0.008073429241580889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H15">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I15">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J15">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>127.5618462567373</v>
+        <v>5.872264083093333</v>
       </c>
       <c r="R15">
-        <v>1148.056616310636</v>
+        <v>52.85037674784</v>
       </c>
       <c r="S15">
-        <v>0.008498990876215759</v>
+        <v>0.001230947726699291</v>
       </c>
       <c r="T15">
-        <v>0.008498990876215759</v>
+        <v>0.001230947726699291</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H16">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I16">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J16">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>1365.674214083872</v>
+        <v>39.09703718746667</v>
       </c>
       <c r="R16">
-        <v>12291.06792675485</v>
+        <v>351.8733346872</v>
       </c>
       <c r="S16">
-        <v>0.09099000230853846</v>
+        <v>0.008195545766606294</v>
       </c>
       <c r="T16">
-        <v>0.09099000230853846</v>
+        <v>0.008195545766606293</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H17">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I17">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J17">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>2.684728808010667</v>
+        <v>4.895583479124666</v>
       </c>
       <c r="R17">
-        <v>24.162559272096</v>
+        <v>44.060251312122</v>
       </c>
       <c r="S17">
-        <v>0.0001788739055914309</v>
+        <v>0.001026215318184513</v>
       </c>
       <c r="T17">
-        <v>0.000178873905591431</v>
+        <v>0.001026215318184514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H18">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I18">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J18">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>72.65637108941867</v>
+        <v>141.7096276134714</v>
       </c>
       <c r="R18">
-        <v>653.9073398047681</v>
+        <v>1275.386648521243</v>
       </c>
       <c r="S18">
-        <v>0.004840834882125276</v>
+        <v>0.02970526214316941</v>
       </c>
       <c r="T18">
-        <v>0.004840834882125277</v>
+        <v>0.02970526214316941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H19">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I19">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J19">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>99.16685828455466</v>
+        <v>98.90499654937233</v>
       </c>
       <c r="R19">
-        <v>892.501724560992</v>
+        <v>890.144968944351</v>
       </c>
       <c r="S19">
-        <v>0.006607134096249384</v>
+        <v>0.02073252819337078</v>
       </c>
       <c r="T19">
-        <v>0.006607134096249385</v>
+        <v>0.02073252819337078</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H20">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I20">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J20">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>6.950093751850668</v>
+        <v>15.07994645380844</v>
       </c>
       <c r="R20">
-        <v>62.55084376665602</v>
+        <v>135.719518084276</v>
       </c>
       <c r="S20">
-        <v>0.0004630599596915381</v>
+        <v>0.003161067953245779</v>
       </c>
       <c r="T20">
-        <v>0.0004630599596915381</v>
+        <v>0.003161067953245779</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H21">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I21">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J21">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>74.40754505281068</v>
+        <v>100.4010069960922</v>
       </c>
       <c r="R21">
-        <v>669.667905475296</v>
+        <v>903.6090629648301</v>
       </c>
       <c r="S21">
-        <v>0.00495750935787393</v>
+        <v>0.02104612285336063</v>
       </c>
       <c r="T21">
-        <v>0.00495750935787393</v>
+        <v>0.02104612285336063</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H22">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I22">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J22">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>53.97190398052189</v>
+        <v>9.436950772840001</v>
       </c>
       <c r="R22">
-        <v>485.747135824697</v>
+        <v>84.93255695556</v>
       </c>
       <c r="S22">
-        <v>0.00359595547542666</v>
+        <v>0.001978179614613202</v>
       </c>
       <c r="T22">
-        <v>0.00359595547542666</v>
+        <v>0.001978179614613202</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H23">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I23">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J23">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>1460.632698658661</v>
+        <v>273.1659638791267</v>
       </c>
       <c r="R23">
-        <v>13145.69428792795</v>
+        <v>2458.49367491214</v>
       </c>
       <c r="S23">
-        <v>0.09731674747335908</v>
+        <v>0.05726122284192365</v>
       </c>
       <c r="T23">
-        <v>0.09731674747335908</v>
+        <v>0.05726122284192364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H24">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I24">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J24">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>1993.580929818346</v>
+        <v>190.65379798022</v>
       </c>
       <c r="R24">
-        <v>17942.22836836512</v>
+        <v>1715.88418182198</v>
       </c>
       <c r="S24">
-        <v>0.132825187395161</v>
+        <v>0.03996497022094293</v>
       </c>
       <c r="T24">
-        <v>0.132825187395161</v>
+        <v>0.03996497022094293</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H25">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I25">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J25">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>139.7198076436102</v>
+        <v>29.06879495538667</v>
       </c>
       <c r="R25">
-        <v>1257.478268792492</v>
+        <v>261.61915459848</v>
       </c>
       <c r="S25">
-        <v>0.009309032482954879</v>
+        <v>0.006093419260765275</v>
       </c>
       <c r="T25">
-        <v>0.009309032482954879</v>
+        <v>0.006093419260765274</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H26">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I26">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J26">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>1495.837071153705</v>
+        <v>193.5375761859334</v>
       </c>
       <c r="R26">
-        <v>13462.53364038335</v>
+        <v>1741.8381856734</v>
       </c>
       <c r="S26">
-        <v>0.09966228925891847</v>
+        <v>0.04056946963997415</v>
       </c>
       <c r="T26">
-        <v>0.09966228925891846</v>
+        <v>0.04056946963997415</v>
       </c>
     </row>
   </sheetData>
